--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="504">
   <si>
     <r>
       <rPr>
@@ -2091,6 +2091,18 @@
     <t>项目层流水线默认权限集</t>
   </si>
   <si>
+    <t>iam_menu-162</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.pipeline.template.ps.template.create</t>
+  </si>
+  <si>
+    <t>流水线模板基于模板创建</t>
+  </si>
+  <si>
+    <t>organization=</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -3278,6 +3290,12 @@
   </si>
   <si>
     <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
   </si>
 </sst>
 </file>
@@ -4834,10 +4852,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5454,6 +5472,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="5:23">
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" t="str">
+        <f>E12</f>
+        <v>iam_menu-155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5465,7 +5525,7 @@
   <sheetPr/>
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+    <sheetView topLeftCell="B75" workbookViewId="0">
       <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
@@ -5509,1339 +5569,1339 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G37" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G48" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G52" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G55" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G58" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G63" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G64" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G65" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G66" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G72" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G73" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G75" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" ht="18.95" customHeight="1" spans="5:7">
       <c r="E81" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G86" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G90" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G91" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G92" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G93" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G94" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G95" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G96" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G97" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G98" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G99" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G100" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G101" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G102" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G103" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G104" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G105" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G106" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G107" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G108" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G109" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G111" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G112" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G114" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G115" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G116" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G117" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6905,66 +6965,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -6978,25 +7038,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" t="s">
         <v>349</v>
-      </c>
-      <c r="G9" t="s">
-        <v>345</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -7010,19 +7070,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M10" t="s">
         <v>81</v>
@@ -7036,19 +7096,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -7062,25 +7122,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M12" t="s">
         <v>81</v>
@@ -7094,22 +7154,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G13" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J13" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -7123,22 +7183,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J14" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -7152,22 +7212,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -7181,22 +7241,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J16" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -7210,25 +7270,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G17" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H17" t="s">
         <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -7242,25 +7302,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J18" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K18" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -7274,25 +7334,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K19" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M19" t="s">
         <v>81</v>
@@ -7306,19 +7366,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F20" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H20" t="s">
         <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M20" t="s">
         <v>81</v>
@@ -7332,25 +7392,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J21" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K21" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -7364,25 +7424,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J22" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K22" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -7396,25 +7456,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H23" t="s">
         <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J23" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K23" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -7428,19 +7488,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -7454,22 +7514,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G25" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J25" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -7483,22 +7543,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F26" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H26" t="s">
         <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="J26" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -7512,25 +7572,25 @@
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7557,33 +7617,33 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I29" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F30" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7594,15 +7654,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I30" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -7613,15 +7673,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F32" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7632,15 +7692,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I32" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F33" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!E17</f>
@@ -7651,7 +7711,7 @@
         <v>iam_label-27</v>
       </c>
       <c r="I33" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7663,10 +7723,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -7710,10 +7770,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7728,72 +7788,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="J7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="O7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="R7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="S7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="T7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="U7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="V7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="X7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Y7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="J8" t="s">
         <v>78</v>
@@ -7829,10 +7889,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="V8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -7840,19 +7900,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="J9" t="s">
         <v>95</v>
@@ -7888,10 +7948,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="V9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -7899,16 +7959,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J10" t="s">
         <v>95</v>
@@ -7945,33 +8005,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="V10" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Y10" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J11" t="s">
         <v>95</v>
@@ -8008,33 +8068,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="V11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Y11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G12" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H12" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J12" t="s">
         <v>95</v>
@@ -8071,33 +8131,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="V12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Y12" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G13" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J13" t="s">
         <v>95</v>
@@ -8134,33 +8194,33 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="V13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Y13" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G14" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H14" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
@@ -8197,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="V14" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8214,33 +8274,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H16" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I16" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -8251,18 +8311,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J17" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8273,18 +8333,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I18" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -8295,18 +8355,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I19" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J19" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -8317,18 +8377,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I20" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J20" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8339,18 +8399,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I21" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J21" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8361,18 +8421,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I22" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F23" t="str">
         <f>E8</f>
@@ -8383,18 +8443,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H23" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I23" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J23" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F24" t="str">
         <f>E8</f>
@@ -8405,18 +8465,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H24" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I24" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J24" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F25" t="str">
         <f>E8</f>
@@ -8427,18 +8487,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H25" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I25" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J25" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F26" t="str">
         <f>E12</f>
@@ -8449,18 +8509,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H26" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I26" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J26" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F27" t="str">
         <f>E10</f>
@@ -8471,18 +8531,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H27" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I27" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J27" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F28" t="str">
         <f>E12</f>
@@ -8493,18 +8553,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H28" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I28" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J28" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F29" t="str">
         <f>E10</f>
@@ -8515,13 +8575,57 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H29" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I29" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J29" t="s">
-        <v>485</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" t="s">
+        <v>502</v>
+      </c>
+      <c r="F30" t="str">
+        <f>E8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-162</v>
+      </c>
+      <c r="H30" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" t="s">
+        <v>488</v>
+      </c>
+      <c r="J30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10">
+      <c r="E31" t="s">
+        <v>503</v>
+      </c>
+      <c r="F31" t="str">
+        <f>E10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-162</v>
+      </c>
+      <c r="H31" t="s">
+        <v>487</v>
+      </c>
+      <c r="I31" t="s">
+        <v>488</v>
+      </c>
+      <c r="J31" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="506">
   <si>
     <r>
       <rPr>
@@ -1959,6 +1959,9 @@
     <t>category</t>
   </si>
   <si>
+    <t>product_source</t>
+  </si>
+  <si>
     <t>iam_menu-151</t>
   </si>
   <si>
@@ -1984,6 +1987,9 @@
   </si>
   <si>
     <t>api</t>
+  </si>
+  <si>
+    <t>choerodon</t>
   </si>
   <si>
     <t>iam_menu-152</t>
@@ -4852,10 +4858,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4893,7 +4899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4966,80 +4972,86 @@
       <c r="X7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="5:23">
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="5:25">
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8"/>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V8"/>
       <c r="W8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="5:23">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="5:25">
       <c r="E9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="str">
         <f>E8</f>
         <v>iam_menu-151</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M9">
         <v>130</v>
@@ -5048,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -5063,34 +5075,37 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="5:23">
+      <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" t="str">
         <f>E9</f>
         <v>iam_menu-152</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -5105,36 +5120,39 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="5:23">
+      <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -5152,34 +5170,37 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="5:23">
+      <c r="Y11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
         <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" t="s">
-        <v>95</v>
       </c>
       <c r="K12" t="str">
         <f>E11</f>
         <v>iam_menu-154</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M12">
         <v>40</v>
@@ -5188,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5203,34 +5224,37 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="5:23">
+      <c r="Y12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K13" t="str">
         <f>E12</f>
         <v>iam_menu-155</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -5245,31 +5269,34 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="5:23">
+      <c r="Y13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="5:25">
       <c r="E14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" t="str">
         <f>E9</f>
         <v>iam_menu-152</v>
       </c>
       <c r="L14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -5284,34 +5311,37 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="5:23">
+      <c r="Y14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="5:25">
       <c r="E15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" t="str">
         <f>E12</f>
         <v>iam_menu-155</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -5326,36 +5356,39 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="5:23">
+      <c r="Y15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="5:25">
       <c r="E16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16">
         <v>20</v>
@@ -5373,34 +5406,37 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="5:23">
+      <c r="Y16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="5:25">
       <c r="E17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" t="str">
         <f>E16</f>
         <v>iam_menu-159</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17">
         <v>35</v>
@@ -5409,10 +5445,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5424,34 +5460,37 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="5:23">
+      <c r="Y17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="5:25">
       <c r="E18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K18" t="str">
         <f>E17</f>
         <v>iam_menu-160</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -5466,34 +5505,37 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="5:23">
+      <c r="Y18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="5:25">
       <c r="E19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" t="str">
         <f>E12</f>
         <v>iam_menu-155</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -5508,10 +5550,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W19">
         <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5569,1339 +5614,1339 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G69" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G74" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G77" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" ht="18.95" customHeight="1" spans="5:7">
       <c r="E81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G87" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G88" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G90" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G91" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G92" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G94" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G96" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G98" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G101" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G102" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G104" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G106" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G107" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G108" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G110" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G112" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G113" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G114" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G115" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G116" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G117" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6965,632 +7010,632 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J8" t="s">
+        <v>353</v>
+      </c>
+      <c r="K8" t="s">
         <v>350</v>
       </c>
-      <c r="J8" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" t="s">
-        <v>348</v>
-      </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>352</v>
       </c>
-      <c r="F9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G9" t="s">
-        <v>349</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>350</v>
-      </c>
       <c r="J9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M11" t="s">
         <v>81</v>
       </c>
-      <c r="I11" t="s">
-        <v>350</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" t="s">
+        <v>367</v>
+      </c>
+      <c r="M13" t="s">
         <v>81</v>
       </c>
-      <c r="I13" t="s">
-        <v>350</v>
-      </c>
-      <c r="J13" t="s">
-        <v>365</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>352</v>
+      </c>
+      <c r="J14" t="s">
+        <v>370</v>
+      </c>
+      <c r="M14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
-        <v>350</v>
-      </c>
-      <c r="J14" t="s">
-        <v>368</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G15" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>352</v>
+      </c>
+      <c r="J15" t="s">
+        <v>373</v>
+      </c>
+      <c r="M15" t="s">
         <v>81</v>
       </c>
-      <c r="I15" t="s">
-        <v>350</v>
-      </c>
-      <c r="J15" t="s">
-        <v>371</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>352</v>
+      </c>
+      <c r="J16" t="s">
+        <v>376</v>
+      </c>
+      <c r="M16" t="s">
         <v>81</v>
       </c>
-      <c r="I16" t="s">
-        <v>350</v>
-      </c>
-      <c r="J16" t="s">
-        <v>374</v>
-      </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>352</v>
+      </c>
+      <c r="J17" t="s">
+        <v>379</v>
+      </c>
+      <c r="K17" t="s">
+        <v>379</v>
+      </c>
+      <c r="M17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
-        <v>350</v>
-      </c>
-      <c r="J17" t="s">
-        <v>377</v>
-      </c>
-      <c r="K17" t="s">
-        <v>377</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>352</v>
+      </c>
+      <c r="J18" t="s">
+        <v>382</v>
+      </c>
+      <c r="K18" t="s">
+        <v>382</v>
+      </c>
+      <c r="M18" t="s">
         <v>81</v>
       </c>
-      <c r="I18" t="s">
-        <v>350</v>
-      </c>
-      <c r="J18" t="s">
-        <v>380</v>
-      </c>
-      <c r="K18" t="s">
-        <v>380</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
         <v>81</v>
       </c>
-      <c r="I20" t="s">
-        <v>357</v>
-      </c>
-      <c r="M20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>359</v>
+      </c>
+      <c r="J21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" t="s">
+        <v>390</v>
+      </c>
+      <c r="M21" t="s">
         <v>81</v>
       </c>
-      <c r="I21" t="s">
-        <v>357</v>
-      </c>
-      <c r="J21" t="s">
-        <v>388</v>
-      </c>
-      <c r="K21" t="s">
-        <v>388</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F22" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G22" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s">
+        <v>359</v>
+      </c>
+      <c r="J22" t="s">
+        <v>393</v>
+      </c>
+      <c r="K22" t="s">
+        <v>393</v>
+      </c>
+      <c r="M22" t="s">
         <v>81</v>
       </c>
-      <c r="I22" t="s">
-        <v>357</v>
-      </c>
-      <c r="J22" t="s">
-        <v>391</v>
-      </c>
-      <c r="K22" t="s">
-        <v>391</v>
-      </c>
-      <c r="M22" t="s">
-        <v>80</v>
-      </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G23" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" t="s">
+        <v>396</v>
+      </c>
+      <c r="K23" t="s">
+        <v>396</v>
+      </c>
+      <c r="M23" t="s">
         <v>81</v>
       </c>
-      <c r="I23" t="s">
-        <v>357</v>
-      </c>
-      <c r="J23" t="s">
-        <v>394</v>
-      </c>
-      <c r="K23" t="s">
-        <v>394</v>
-      </c>
-      <c r="M23" t="s">
-        <v>80</v>
-      </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>359</v>
+      </c>
+      <c r="M24" t="s">
         <v>81</v>
       </c>
-      <c r="I24" t="s">
-        <v>357</v>
-      </c>
-      <c r="M24" t="s">
-        <v>80</v>
-      </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F25" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G25" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>359</v>
+      </c>
+      <c r="J25" t="s">
+        <v>401</v>
+      </c>
+      <c r="M25" t="s">
         <v>81</v>
       </c>
-      <c r="I25" t="s">
-        <v>357</v>
-      </c>
-      <c r="J25" t="s">
-        <v>399</v>
-      </c>
-      <c r="M25" t="s">
-        <v>80</v>
-      </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>359</v>
+      </c>
+      <c r="J26" t="s">
+        <v>404</v>
+      </c>
+      <c r="M26" t="s">
         <v>81</v>
       </c>
-      <c r="I26" t="s">
-        <v>357</v>
-      </c>
-      <c r="J26" t="s">
-        <v>402</v>
-      </c>
-      <c r="M26" t="s">
-        <v>80</v>
-      </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F27" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7617,33 +7662,33 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F30" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7654,15 +7699,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I30" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -7673,15 +7718,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7692,15 +7737,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!E17</f>
@@ -7711,7 +7756,7 @@
         <v>iam_label-27</v>
       </c>
       <c r="I33" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7770,10 +7815,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7788,442 +7833,442 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="R7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="S7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="U7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="V7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="X7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Y7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" t="s">
-        <v>80</v>
-      </c>
       <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
+        <v>438</v>
+      </c>
+      <c r="V8" t="s">
+        <v>438</v>
+      </c>
+      <c r="W8" t="s">
         <v>81</v>
-      </c>
-      <c r="T8" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" t="s">
-        <v>436</v>
-      </c>
-      <c r="V8" t="s">
-        <v>436</v>
-      </c>
-      <c r="W8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
       <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" t="s">
         <v>81</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
+        <v>443</v>
+      </c>
+      <c r="V9" t="s">
+        <v>443</v>
+      </c>
+      <c r="W9" t="s">
         <v>81</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" t="s">
-        <v>441</v>
-      </c>
-      <c r="V9" t="s">
-        <v>441</v>
-      </c>
-      <c r="W9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
       <c r="R10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" t="s">
         <v>81</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
+        <v>449</v>
+      </c>
+      <c r="V10" t="s">
+        <v>450</v>
+      </c>
+      <c r="W10" t="s">
         <v>81</v>
       </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" t="s">
-        <v>447</v>
-      </c>
-      <c r="V10" t="s">
-        <v>448</v>
-      </c>
-      <c r="W10" t="s">
-        <v>80</v>
-      </c>
       <c r="X10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Y10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
       <c r="R11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" t="s">
         <v>81</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
+        <v>457</v>
+      </c>
+      <c r="V11" t="s">
+        <v>458</v>
+      </c>
+      <c r="W11" t="s">
         <v>81</v>
       </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" t="s">
-        <v>455</v>
-      </c>
-      <c r="V11" t="s">
-        <v>456</v>
-      </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
       <c r="X11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Y11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
       <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
+        <v>465</v>
+      </c>
+      <c r="V12" t="s">
+        <v>466</v>
+      </c>
+      <c r="W12" t="s">
         <v>81</v>
       </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" t="s">
-        <v>463</v>
-      </c>
-      <c r="V12" t="s">
-        <v>464</v>
-      </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
       <c r="X12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Y12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" t="s">
         <v>81</v>
       </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
       <c r="R13" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" t="s">
         <v>81</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
+        <v>473</v>
+      </c>
+      <c r="V13" t="s">
+        <v>474</v>
+      </c>
+      <c r="W13" t="s">
         <v>81</v>
       </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" t="s">
-        <v>471</v>
-      </c>
-      <c r="V13" t="s">
-        <v>472</v>
-      </c>
-      <c r="W13" t="s">
-        <v>80</v>
-      </c>
       <c r="X13" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H14" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -8236,7 +8281,7 @@
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -8257,10 +8302,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="V14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8274,33 +8319,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H16" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I16" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -8311,18 +8356,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8333,18 +8378,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I18" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J18" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -8355,18 +8400,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I19" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -8377,18 +8422,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8399,18 +8444,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8421,18 +8466,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F23" t="str">
         <f>E8</f>
@@ -8443,18 +8488,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H23" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I23" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J23" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F24" t="str">
         <f>E8</f>
@@ -8465,18 +8510,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I24" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J24" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F25" t="str">
         <f>E8</f>
@@ -8487,18 +8532,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H25" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J25" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F26" t="str">
         <f>E12</f>
@@ -8509,18 +8554,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F27" t="str">
         <f>E10</f>
@@ -8531,18 +8576,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H27" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I27" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F28" t="str">
         <f>E12</f>
@@ -8553,18 +8598,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H28" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I28" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F29" t="str">
         <f>E10</f>
@@ -8575,18 +8620,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H29" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I29" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J29" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -8597,18 +8642,18 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H30" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I30" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J30" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F31" t="str">
         <f>E10</f>
@@ -8619,13 +8664,13 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="11820" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="508">
   <si>
     <r>
       <rPr>
@@ -2752,6 +2752,12 @@
   </si>
   <si>
     <t>devops-service.ci-project-template-variable.queryCiVariableByPipelineTemplateId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.queryStepTemplateByStepId</t>
   </si>
   <si>
     <t>标签表</t>
@@ -4860,7 +4866,7 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y8" sqref="Y8:Y19"/>
     </sheetView>
   </sheetViews>
@@ -5568,10 +5574,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -6947,6 +6953,18 @@
       </c>
       <c r="G117" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7">
+      <c r="E118" t="s">
+        <v>337</v>
+      </c>
+      <c r="F118" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G118" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7010,66 +7028,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" t="s">
+        <v>355</v>
+      </c>
+      <c r="K8" t="s">
         <v>352</v>
-      </c>
-      <c r="J8" t="s">
-        <v>353</v>
-      </c>
-      <c r="K8" t="s">
-        <v>350</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -7083,25 +7101,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -7115,19 +7133,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -7141,19 +7159,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -7167,25 +7185,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -7199,22 +7217,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -7228,22 +7246,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -7257,22 +7275,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J15" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -7286,22 +7304,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -7315,25 +7333,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -7347,25 +7365,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -7379,25 +7397,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -7411,19 +7429,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -7437,25 +7455,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -7469,25 +7487,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G22" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -7501,25 +7519,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G23" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K23" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -7533,19 +7551,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -7559,22 +7577,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G25" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J25" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -7588,22 +7606,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G26" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -7617,25 +7635,25 @@
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F27" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7662,33 +7680,33 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F30" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7699,15 +7717,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I30" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -7718,15 +7736,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F32" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7737,15 +7755,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I32" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!E17</f>
@@ -7756,7 +7774,7 @@
         <v>iam_label-27</v>
       </c>
       <c r="I33" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -7815,10 +7833,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7833,72 +7851,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="R7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="S7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="T7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="U7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="V7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="X7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Y7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -7934,10 +7952,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="V8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -7945,19 +7963,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J9" t="s">
         <v>97</v>
@@ -7993,10 +8011,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="V9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -8004,16 +8022,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J10" t="s">
         <v>97</v>
@@ -8050,33 +8068,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="V10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Y10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J11" t="s">
         <v>97</v>
@@ -8113,33 +8131,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="V11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Y11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J12" t="s">
         <v>97</v>
@@ -8176,33 +8194,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="V12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Y12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J13" t="s">
         <v>97</v>
@@ -8239,33 +8257,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="V13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Y13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -8302,10 +8320,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="V14" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8319,33 +8337,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H16" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I16" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -8356,18 +8374,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I17" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J17" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8378,18 +8396,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I18" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J18" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -8400,18 +8418,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J19" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -8422,18 +8440,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I20" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J20" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8444,18 +8462,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J21" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8466,18 +8484,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F23" t="str">
         <f>E8</f>
@@ -8488,18 +8506,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H23" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J23" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F24" t="str">
         <f>E8</f>
@@ -8510,18 +8528,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H24" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I24" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J24" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F25" t="str">
         <f>E8</f>
@@ -8532,18 +8550,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H25" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I25" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J25" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F26" t="str">
         <f>E12</f>
@@ -8554,18 +8572,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J26" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F27" t="str">
         <f>E10</f>
@@ -8576,18 +8594,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I27" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F28" t="str">
         <f>E12</f>
@@ -8598,18 +8616,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H28" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I28" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J28" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F29" t="str">
         <f>E10</f>
@@ -8620,18 +8638,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H29" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I29" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J29" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -8642,18 +8660,18 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H30" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I30" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F31" t="str">
         <f>E10</f>
@@ -8664,13 +8682,13 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I31" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J31" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="509">
   <si>
     <r>
       <rPr>
@@ -1999,6 +1999,9 @@
   </si>
   <si>
     <t>流水线模板</t>
+  </si>
+  <si>
+    <t>Pipeline Template</t>
   </si>
   <si>
     <t>menu</t>
@@ -4866,8 +4869,8 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8:Y19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5047,7 +5050,7 @@
         <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -5057,7 +5060,7 @@
         <v>iam_menu-151</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M9">
         <v>130</v>
@@ -5066,10 +5069,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -5092,16 +5095,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -5111,7 +5114,7 @@
         <v>iam_menu-152</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -5137,10 +5140,10 @@
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -5152,7 +5155,7 @@
         <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5187,10 +5190,10 @@
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>87</v>
@@ -5199,14 +5202,14 @@
         <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12" t="str">
         <f>E11</f>
         <v>iam_menu-154</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M12">
         <v>40</v>
@@ -5215,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5241,26 +5244,26 @@
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" t="str">
         <f>E12</f>
         <v>iam_menu-155</v>
       </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -5286,13 +5289,13 @@
     </row>
     <row r="14" spans="5:25">
       <c r="E14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -5302,7 +5305,7 @@
         <v>iam_menu-152</v>
       </c>
       <c r="L14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -5328,26 +5331,26 @@
     </row>
     <row r="15" spans="5:25">
       <c r="E15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" t="str">
         <f>E12</f>
         <v>iam_menu-155</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -5373,22 +5376,22 @@
     </row>
     <row r="16" spans="5:25">
       <c r="E16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5423,26 +5426,26 @@
     </row>
     <row r="17" spans="5:25">
       <c r="E17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
         <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" t="str">
         <f>E16</f>
         <v>iam_menu-159</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M17">
         <v>35</v>
@@ -5451,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -5477,26 +5480,26 @@
     </row>
     <row r="18" spans="5:25">
       <c r="E18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K18" t="str">
         <f>E17</f>
         <v>iam_menu-160</v>
       </c>
       <c r="L18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -5522,26 +5525,26 @@
     </row>
     <row r="19" spans="5:25">
       <c r="E19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" t="str">
         <f>E12</f>
         <v>iam_menu-155</v>
       </c>
       <c r="L19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -5576,7 +5579,7 @@
   <sheetPr/>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+    <sheetView topLeftCell="B97" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
@@ -5620,1351 +5623,1351 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" ht="18.95" customHeight="1" spans="5:7">
       <c r="E81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G87" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G88" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G93" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G98" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G100" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G102" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G107" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G109" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G110" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G111" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G112" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G114" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G116" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G117" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G118" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7028,66 +7031,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -7101,25 +7104,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" t="s">
         <v>358</v>
-      </c>
-      <c r="K9" t="s">
-        <v>357</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -7133,19 +7136,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -7159,19 +7162,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -7185,25 +7188,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -7217,22 +7220,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -7246,22 +7249,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -7275,22 +7278,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -7304,22 +7307,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -7333,25 +7336,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -7365,25 +7368,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -7397,25 +7400,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J19" t="s">
+        <v>388</v>
+      </c>
+      <c r="K19" t="s">
         <v>387</v>
-      </c>
-      <c r="K19" t="s">
-        <v>386</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -7429,19 +7432,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -7455,25 +7458,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -7487,25 +7490,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -7519,25 +7522,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -7551,19 +7554,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -7577,22 +7580,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -7606,22 +7609,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -7635,25 +7638,25 @@
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7680,33 +7683,33 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7717,15 +7720,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -7736,15 +7739,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7755,15 +7758,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!E17</f>
@@ -7774,7 +7777,7 @@
         <v>iam_label-27</v>
       </c>
       <c r="I33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7833,10 +7836,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7851,72 +7854,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="S7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="T7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="U7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="X7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -7931,7 +7934,7 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -7952,10 +7955,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -7963,22 +7966,22 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -7990,7 +7993,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
         <v>81</v>
@@ -8011,10 +8014,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -8022,19 +8025,19 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -8047,7 +8050,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -8068,36 +8071,36 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -8110,7 +8113,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
         <v>81</v>
@@ -8131,36 +8134,36 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
         <v>81</v>
@@ -8173,7 +8176,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
         <v>81</v>
@@ -8194,36 +8197,36 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="V12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
@@ -8236,7 +8239,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
         <v>81</v>
@@ -8257,33 +8260,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -8299,7 +8302,7 @@
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -8320,10 +8323,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="V14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8337,33 +8340,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -8374,18 +8377,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8396,18 +8399,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -8418,18 +8421,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -8440,18 +8443,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8462,18 +8465,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8484,18 +8487,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F23" t="str">
         <f>E8</f>
@@ -8506,18 +8509,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I23" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J23" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F24" t="str">
         <f>E8</f>
@@ -8528,18 +8531,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F25" t="str">
         <f>E8</f>
@@ -8550,18 +8553,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F26" t="str">
         <f>E12</f>
@@ -8572,18 +8575,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F27" t="str">
         <f>E10</f>
@@ -8594,18 +8597,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F28" t="str">
         <f>E12</f>
@@ -8616,18 +8619,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F29" t="str">
         <f>E10</f>
@@ -8638,18 +8641,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H29" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I29" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -8660,18 +8663,18 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I30" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F31" t="str">
         <f>E10</f>
@@ -8682,13 +8685,13 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4870,7 +4870,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5199,7 +5199,7 @@
         <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25770" windowHeight="11340" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2076,7 +2076,7 @@
     <t>开发</t>
   </si>
   <si>
-    <t>Development</t>
+    <t>Dev</t>
   </si>
   <si>
     <t>KF</t>
@@ -4870,7 +4870,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25770" windowHeight="11340" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25770" windowHeight="11235" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="514">
   <si>
     <r>
       <rPr>
@@ -2109,7 +2109,22 @@
     <t>流水线模板基于模板创建</t>
   </si>
   <si>
-    <t>organization=</t>
+    <t>iam_menu-163</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.develop.pipeline-managementDir</t>
+  </si>
+  <si>
+    <t>流水线管理</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
   <si>
     <t>菜单权限</t>
@@ -3323,7 +3338,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3364,6 +3379,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF202124"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4012,49 +4033,46 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4066,99 +4084,102 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4171,6 +4192,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4182,40 +4204,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4228,7 +4250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4631,8 +4653,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -4648,79 +4670,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4728,56 +4750,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4787,30 +4809,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -4818,7 +4840,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4826,25 +4848,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4867,10 +4889,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4879,6 +4901,7 @@
     <col min="6" max="6" width="62.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="30.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="15.8888888888889" customWidth="1"/>
     <col min="16" max="16" width="17.1111111111111" customWidth="1"/>
   </cols>
@@ -5441,8 +5464,8 @@
         <v>98</v>
       </c>
       <c r="K17" t="str">
-        <f>E16</f>
-        <v>iam_menu-159</v>
+        <f>E20</f>
+        <v>iam_menu-163</v>
       </c>
       <c r="L17" t="s">
         <v>89</v>
@@ -5537,7 +5560,7 @@
         <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="K19" t="str">
         <f>E12</f>
@@ -5565,6 +5588,57 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="5:25">
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" t="str">
+        <f>E16</f>
+        <v>iam_menu-159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5623,1351 +5697,1351 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G41" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G42" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G44" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G45" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G46" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G47" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G49" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G50" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G52" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G53" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G54" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G55" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G57" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G59" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G61" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G64" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G66" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G68" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G71" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G72" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G73" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-156</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G77" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" ht="18.95" customHeight="1" spans="5:7">
       <c r="E81" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G83" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G84" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G85" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G86" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G87" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G88" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G89" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G90" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G91" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G92" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G93" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G94" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G95" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G96" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G97" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G98" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G99" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G100" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G101" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G102" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G104" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G105" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G107" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G108" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G109" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G110" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G111" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G112" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G113" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G114" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G115" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G116" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-161</v>
       </c>
       <c r="G117" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-158</v>
       </c>
       <c r="G118" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -7031,66 +7105,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="J7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="O7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J8" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K8" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -7104,25 +7178,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -7136,19 +7210,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G10" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -7162,19 +7236,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -7188,25 +7262,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J12" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K12" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -7220,22 +7294,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F13" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G13" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -7249,22 +7323,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G14" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J14" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -7278,22 +7352,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G15" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -7307,22 +7381,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J16" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -7336,25 +7410,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J17" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K17" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -7368,25 +7442,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F18" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G18" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J18" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K18" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -7400,25 +7474,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G19" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J19" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K19" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -7432,19 +7506,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F20" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G20" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -7458,25 +7532,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G21" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J21" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -7490,25 +7564,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F22" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G22" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K22" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -7522,25 +7596,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F23" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G23" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -7554,19 +7628,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F24" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G24" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -7580,22 +7654,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G25" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J25" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -7609,22 +7683,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F26" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -7638,25 +7712,25 @@
     </row>
     <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F27" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7683,33 +7757,33 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="I29" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F30" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -7720,15 +7794,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I30" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F31" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -7739,15 +7813,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -7758,15 +7832,15 @@
         <v>iam_label-9</v>
       </c>
       <c r="I32" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F33" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!E17</f>
@@ -7777,7 +7851,7 @@
         <v>iam_label-27</v>
       </c>
       <c r="I33" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -7836,10 +7910,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7854,72 +7928,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="O7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="R7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="S7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="T7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="U7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="V7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="X7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Y7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -7955,10 +8029,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="V8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -7966,19 +8040,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G9" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I9" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -8014,10 +8088,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="V9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -8025,16 +8099,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G10" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H10" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -8071,33 +8145,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="V10" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Y10" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -8134,33 +8208,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="V11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Y11" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F12" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G12" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H12" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -8197,33 +8271,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="V12" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Y12" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F13" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G13" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H13" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -8260,33 +8334,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="V13" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Y13" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F14" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G14" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H14" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -8323,10 +8397,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="V14" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -8340,33 +8414,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H16" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="I16" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -8377,18 +8451,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I17" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J17" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -8399,18 +8473,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I18" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J18" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -8421,18 +8495,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I19" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J19" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -8443,18 +8517,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I20" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J20" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -8465,18 +8539,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I21" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J21" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -8487,18 +8561,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I22" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J22" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F23" t="str">
         <f>E8</f>
@@ -8509,18 +8583,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H23" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I23" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J23" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F24" t="str">
         <f>E8</f>
@@ -8531,18 +8605,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H24" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I24" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J24" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F25" t="str">
         <f>E8</f>
@@ -8553,18 +8627,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H25" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I25" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J25" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F26" t="str">
         <f>E12</f>
@@ -8575,18 +8649,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H26" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I26" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J26" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F27" t="str">
         <f>E10</f>
@@ -8597,18 +8671,18 @@
         <v>iam_menu-161</v>
       </c>
       <c r="H27" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I27" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J27" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F28" t="str">
         <f>E12</f>
@@ -8619,18 +8693,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H28" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I28" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J28" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F29" t="str">
         <f>E10</f>
@@ -8641,18 +8715,18 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H29" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I29" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J29" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F30" t="str">
         <f>E8</f>
@@ -8663,18 +8737,18 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H30" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I30" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J30" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F31" t="str">
         <f>E10</f>
@@ -8685,13 +8759,13 @@
         <v>iam_menu-162</v>
       </c>
       <c r="H31" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I31" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J31" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
